--- a/results/CDAVO Opus 1-1 No Match.xlsx
+++ b/results/CDAVO Opus 1-1 No Match.xlsx
@@ -729,7 +729,7 @@
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
-          <t>25 Oct 2023</t>
+          <t>26 Oct 2023</t>
         </is>
       </c>
       <c r="E4" s="9" t="n"/>
